--- a/Planilha_de_Negocios.xlsx
+++ b/Planilha_de_Negocios.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Helena\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Helena\Desktop\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64A96433-C244-4645-B04A-F8A9B721B920}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17592CC4-E3AE-4018-9FD3-C9D86DB021B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{B93EFE28-CC56-4C9F-AA0A-2D1B24DC53D6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="5" xr2:uid="{B93EFE28-CC56-4C9F-AA0A-2D1B24DC53D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Janeiro" sheetId="1" r:id="rId1"/>
     <sheet name="Fevereiro" sheetId="3" r:id="rId2"/>
     <sheet name="Março" sheetId="4" r:id="rId3"/>
     <sheet name="Abril - Cyber" sheetId="5" r:id="rId4"/>
+    <sheet name="Maio - Cyber" sheetId="6" r:id="rId5"/>
+    <sheet name="Junho - Cyber" sheetId="7" r:id="rId6"/>
+    <sheet name="Lucros do Período 2024" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -144,7 +147,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="66">
   <si>
     <t>PLANILHA DE NEGÓCIOS</t>
   </si>
@@ -256,6 +259,93 @@
   <si>
     <t>Manuteção</t>
   </si>
+  <si>
+    <t>Panfleto</t>
+  </si>
+  <si>
+    <t>C. Visita</t>
+  </si>
+  <si>
+    <t>Caneca - R$ 10</t>
+  </si>
+  <si>
+    <t>Caneca - R$ 5</t>
+  </si>
+  <si>
+    <t>Camiseta</t>
+  </si>
+  <si>
+    <t>MAIO</t>
+  </si>
+  <si>
+    <t>Camiseta - R$ 5</t>
+  </si>
+  <si>
+    <t>Camiseta - R$ 10</t>
+  </si>
+  <si>
+    <t>JUNHO</t>
+  </si>
+  <si>
+    <t>Valor Recebido</t>
+  </si>
+  <si>
+    <t>GANHOS DO PERÍODO</t>
+  </si>
+  <si>
+    <t>JAN</t>
+  </si>
+  <si>
+    <t>FEV</t>
+  </si>
+  <si>
+    <t>MAR</t>
+  </si>
+  <si>
+    <t>ABR</t>
+  </si>
+  <si>
+    <t>MAI</t>
+  </si>
+  <si>
+    <t>JUN</t>
+  </si>
+  <si>
+    <t>JUL</t>
+  </si>
+  <si>
+    <t>AGO</t>
+  </si>
+  <si>
+    <t>SET</t>
+  </si>
+  <si>
+    <t>OUT</t>
+  </si>
+  <si>
+    <t>NOV</t>
+  </si>
+  <si>
+    <t>DEZ</t>
+  </si>
+  <si>
+    <t>PRODUTOS</t>
+  </si>
+  <si>
+    <t>Caneca R$ 10</t>
+  </si>
+  <si>
+    <t>Caneca R$ 5</t>
+  </si>
+  <si>
+    <t>Camiseta R$ 10</t>
+  </si>
+  <si>
+    <t>Camiseta R$ 5</t>
+  </si>
+  <si>
+    <t>Cartão de Visita</t>
+  </si>
 </sst>
 </file>
 
@@ -264,7 +354,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -381,8 +471,30 @@
       <name val="Candara"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="23">
+  <fills count="27">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -541,8 +653,39 @@
         </stop>
       </gradientFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <gradientFill degree="90">
+        <stop position="0">
+          <color theme="4"/>
+        </stop>
+        <stop position="0.5">
+          <color theme="1"/>
+        </stop>
+        <stop position="1">
+          <color theme="4"/>
+        </stop>
+      </gradientFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -633,12 +776,87 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -722,6 +940,35 @@
     <xf numFmtId="0" fontId="4" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="4" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="23" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="23" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="20" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -780,6 +1027,96 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="17" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="17" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="17" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="17" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="20" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="25" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="1" fillId="25" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="26" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="1" fillId="26" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3112,7 +3449,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3219,6 +3556,1724 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Desempenho MAIO - 2024</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Maio - Cyber'!$A$4:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Logo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Caneca - R$ 10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Caneca - R$ 5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Taça</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Toalha</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Medida</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Adesivo</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Ima</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Manutenção</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Panfleto</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>C. Visita</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Camiseta</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Maio - Cyber'!$B$4:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D928-42DD-9974-81C0288D301C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="115"/>
+        <c:overlap val="-20"/>
+        <c:axId val="670864784"/>
+        <c:axId val="670865264"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="670864784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="670865264"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="670865264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="670864784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Desempenho JUNHO</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" baseline="0"/>
+              <a:t> 2024</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Junho - Cyber'!$A$4:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>Logo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Adesivo</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C. Visita</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Camiseta - R$ 10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Camiseta - R$ 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Caneca - R$ 10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Caneca - R$ 5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Ima</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Manutenção</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Medida</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Panfleto</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Taça</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Toalha</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Junho - Cyber'!$B$4:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4FB6-46D8-A793-EB7BD910456C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="115"/>
+        <c:overlap val="-20"/>
+        <c:axId val="1713961616"/>
+        <c:axId val="1713989936"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1713961616"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1713989936"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1713989936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="t"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1713961616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="106"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="6"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>GANHOS PERÍODO</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" baseline="0"/>
+              <a:t> 2024</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Lucros do Período 2024'!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>JAN</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FEV</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MAR</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ABR</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MAI</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>JUN</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>JUL</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>AGO</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>SET</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>OUT</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>NOV</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>DEZ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Lucros do Período 2024'!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DC7F-4B68-9EB7-47859726C56D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="115"/>
+        <c:overlap val="-20"/>
+        <c:axId val="1606739312"/>
+        <c:axId val="1606736432"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1606739312"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1606736432"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1606736432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="t"/>
+        <c:numFmt formatCode="_(&quot;R$&quot;* #,##0.00_);_(&quot;R$&quot;* \(#,##0.00\);_(&quot;R$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1606739312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="106"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="6"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>VENDA POR</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" baseline="0"/>
+              <a:t> PRODUTO</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Lucros do Período 2024'!$D$2:$D$14</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>Adesivo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Camiseta R$ 10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Camiseta R$ 5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Caneca R$ 10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Caneca R$ 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Cartão de Visita</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ima</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Logo</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Manutenção</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Medida</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Panfleto</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Taça</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Toalha</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Lucros do Período 2024'!$E$2:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B1C9-465C-9407-ADA96D076197}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="115"/>
+        <c:overlap val="-20"/>
+        <c:axId val="1713966416"/>
+        <c:axId val="1713974096"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1713966416"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1713974096"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1713974096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="t"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1713966416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -3425,6 +5480,98 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="17">
+  <a:schemeClr val="accent4"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="17">
+  <a:schemeClr val="accent4"/>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="222">
   <cs:axisTitle>
@@ -5404,6 +7551,1990 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="222">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="222">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="222">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="222">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
@@ -5723,6 +9854,165 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>61911</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9054ECF6-47B9-B891-7CC9-E880B7FAEF0D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24E63511-7C01-44A3-8DF6-69AC4737CE68}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A49485BA-E59D-6B80-09BC-653393331E88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>52386</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4223350-FE33-94C0-6B1A-7CA47D07B48B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
@@ -6023,7 +10313,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6034,18 +10324,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
     </row>
     <row r="2" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
@@ -6060,18 +10350,18 @@
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="E3" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
       <c r="J3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
     </row>
     <row r="4" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -6086,19 +10376,19 @@
       <c r="E4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="40">
+      <c r="F4" s="51">
         <f>SUMIF(A4:A13,"Caneca",B4:B13)</f>
         <v>10</v>
       </c>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="42">
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="53">
         <f>SUM(F4:I5)</f>
         <v>12</v>
       </c>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -6113,16 +10403,16 @@
       <c r="E5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="40">
+      <c r="F5" s="51">
         <f>SUMIF(A4:A13,"Toalha",B4:B13)</f>
         <v>2</v>
       </c>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -6134,8 +10424,8 @@
       <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -6150,8 +10440,8 @@
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="8"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -6163,17 +10453,17 @@
       <c r="C8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="43" t="s">
+      <c r="E8" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="44">
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="55">
         <v>120</v>
       </c>
-      <c r="I8" s="44"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
+      <c r="I8" s="55"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -6185,11 +10475,11 @@
       <c r="C9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
@@ -6296,7 +10586,7 @@
   <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B11"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6312,29 +10602,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
       <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
       <c r="E2" s="14"/>
-      <c r="F2" s="46" t="s">
+      <c r="F2" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -6350,14 +10640,14 @@
         <v>20</v>
       </c>
       <c r="E3" s="15"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
       <c r="K3" s="14"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
     </row>
     <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -6374,18 +10664,18 @@
         <v>20</v>
       </c>
       <c r="E4" s="12"/>
-      <c r="F4" s="43" t="s">
+      <c r="F4" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="43"/>
-      <c r="H4" s="45" t="s">
+      <c r="G4" s="54"/>
+      <c r="H4" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
     </row>
     <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -6402,14 +10692,14 @@
         <v>20</v>
       </c>
       <c r="E5" s="12"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
     </row>
     <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -6426,22 +10716,22 @@
         <v>10</v>
       </c>
       <c r="E6" s="12"/>
-      <c r="F6" s="43" t="s">
+      <c r="F6" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="43">
+      <c r="G6" s="54">
         <f>SUMIF(A4:A11,"Medidas",B4:B11)</f>
         <v>4</v>
       </c>
-      <c r="H6" s="45">
+      <c r="H6" s="56">
         <f>SUMIF(A4:A11,H4,B4:B11)</f>
         <v>8</v>
       </c>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="52"/>
       <c r="P6" s="19" t="s">
         <v>5</v>
       </c>
@@ -6461,17 +10751,17 @@
         <v>10</v>
       </c>
       <c r="E7" s="12"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43">
+      <c r="F7" s="54"/>
+      <c r="G7" s="54">
         <f>SUMIF(A4:A11,"Taça",B4:B11)</f>
         <v>2</v>
       </c>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
       <c r="P7" s="19" t="s">
         <v>13</v>
       </c>
@@ -6510,16 +10800,16 @@
         <v>10</v>
       </c>
       <c r="E9" s="12"/>
-      <c r="F9" s="48" t="s">
+      <c r="F9" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="49">
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="60">
         <f>SUM(D4:D11)</f>
         <v>150</v>
       </c>
-      <c r="J9" s="49"/>
+      <c r="J9" s="60"/>
       <c r="K9" s="18"/>
       <c r="P9" s="19" t="s">
         <v>11</v>
@@ -6540,11 +10830,11 @@
         <v>10</v>
       </c>
       <c r="E10" s="12"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="60"/>
       <c r="K10" s="18"/>
     </row>
     <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6561,23 +10851,23 @@
         <f>10*B11</f>
         <v>50</v>
       </c>
-      <c r="F11" s="43" t="s">
+      <c r="F11" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="45">
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="56">
         <f>SUM(B4:B11)</f>
         <v>18</v>
       </c>
-      <c r="J11" s="45"/>
+      <c r="J11" s="56"/>
     </row>
     <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C14" s="8"/>
@@ -6728,7 +11018,7 @@
   <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6745,29 +11035,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
       <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
       <c r="E2" s="14"/>
-      <c r="F2" s="46" t="s">
+      <c r="F2" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
     </row>
     <row r="3" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -6783,18 +11073,18 @@
         <v>20</v>
       </c>
       <c r="E3" s="15"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
       <c r="K3" s="14"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="O3" s="52" t="s">
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="O3" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="53"/>
+      <c r="P3" s="64"/>
     </row>
     <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -6811,18 +11101,18 @@
         <v>60</v>
       </c>
       <c r="E4" s="12"/>
-      <c r="F4" s="43" t="s">
+      <c r="F4" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="43"/>
-      <c r="H4" s="45" t="s">
+      <c r="G4" s="54"/>
+      <c r="H4" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
       <c r="O4" s="21" t="s">
         <v>5</v>
       </c>
@@ -6845,14 +11135,14 @@
         <v>40</v>
       </c>
       <c r="E5" s="12"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
       <c r="O5" s="23" t="s">
         <v>25</v>
       </c>
@@ -6875,22 +11165,22 @@
         <v>100</v>
       </c>
       <c r="E6" s="12"/>
-      <c r="F6" s="43" t="s">
+      <c r="F6" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="43">
+      <c r="G6" s="54">
         <f>SUMIF(A4:A10,"Medidas",B4:B10)</f>
         <v>12</v>
       </c>
-      <c r="H6" s="45">
+      <c r="H6" s="56">
         <f>SUMIF(A4:A10,H4,B4:B10)</f>
         <v>1</v>
       </c>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="52"/>
       <c r="O6" s="21" t="s">
         <v>19</v>
       </c>
@@ -6913,17 +11203,17 @@
         <v>10</v>
       </c>
       <c r="E7" s="12"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43">
+      <c r="F7" s="54"/>
+      <c r="G7" s="54">
         <f>SUMIF(A4:A10,"Taça",B4:B10)</f>
         <v>0</v>
       </c>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
       <c r="O7" s="23" t="s">
         <v>11</v>
       </c>
@@ -6952,16 +11242,16 @@
     </row>
     <row r="9" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E9" s="12"/>
-      <c r="F9" s="48" t="s">
+      <c r="F9" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="50">
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="61">
         <f>SUM(D4:D10)</f>
         <v>220</v>
       </c>
-      <c r="J9" s="50"/>
+      <c r="J9" s="61"/>
       <c r="K9" s="18"/>
       <c r="P9" s="19" t="s">
         <v>11</v>
@@ -6973,11 +11263,11 @@
       <c r="C10" s="20"/>
       <c r="D10" s="27"/>
       <c r="E10" s="12"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="50"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="61"/>
       <c r="K10" s="18"/>
     </row>
     <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6985,27 +11275,27 @@
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
-      <c r="F11" s="43" t="s">
+      <c r="F11" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="51">
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="62">
         <f>SUM(B4:B8)</f>
         <v>39</v>
       </c>
-      <c r="J11" s="51"/>
+      <c r="J11" s="62"/>
     </row>
     <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="29"/>
       <c r="B12" s="20"/>
       <c r="C12" s="8"/>
       <c r="D12" s="28"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="62"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
@@ -7238,8 +11528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA027607-A441-43B3-9F59-BAF4D4BF8170}">
   <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7257,29 +11547,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
       <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
       <c r="E2" s="14"/>
-      <c r="F2" s="46" t="s">
+      <c r="F2" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
     </row>
     <row r="3" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -7295,20 +11585,20 @@
         <v>20</v>
       </c>
       <c r="E3" s="15"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
       <c r="K3" s="14"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="O3" s="56" t="s">
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="O3" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="56"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
     </row>
     <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -7322,18 +11612,18 @@
         <v>50</v>
       </c>
       <c r="E4" s="12"/>
-      <c r="F4" s="43" t="s">
+      <c r="F4" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="43"/>
-      <c r="H4" s="45" t="s">
+      <c r="G4" s="54"/>
+      <c r="H4" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
       <c r="O4" s="33" t="s">
         <v>5</v>
       </c>
@@ -7360,14 +11650,14 @@
         <v>60</v>
       </c>
       <c r="E5" s="12"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
       <c r="O5" s="30" t="s">
         <v>25</v>
       </c>
@@ -7386,22 +11676,22 @@
         <v>0</v>
       </c>
       <c r="E6" s="12"/>
-      <c r="F6" s="43" t="s">
+      <c r="F6" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="43">
+      <c r="G6" s="54">
         <f>SUMIF(A4:A10,"Medidas",B4:B10)</f>
         <v>0</v>
       </c>
-      <c r="H6" s="45">
+      <c r="H6" s="56">
         <f>SUMIF(A4:A10,H4,B4:B10)</f>
         <v>0</v>
       </c>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="52"/>
       <c r="O6" s="33" t="s">
         <v>19</v>
       </c>
@@ -7422,17 +11712,17 @@
         <v>10</v>
       </c>
       <c r="E7" s="12"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43">
+      <c r="F7" s="54"/>
+      <c r="G7" s="54">
         <f>SUMIF(A4:A10,"Taça",B4:B10)</f>
         <v>0</v>
       </c>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
       <c r="O7" s="30" t="s">
         <v>11</v>
       </c>
@@ -7470,16 +11760,16 @@
         <v>10</v>
       </c>
       <c r="E9" s="12"/>
-      <c r="F9" s="48" t="s">
+      <c r="F9" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="50">
-        <f>SUM(D4:D10)</f>
-        <v>150</v>
-      </c>
-      <c r="J9" s="50"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="61">
+        <f>SUM(D4:D11)</f>
+        <v>250</v>
+      </c>
+      <c r="J9" s="61"/>
       <c r="K9" s="18"/>
       <c r="P9" s="19" t="s">
         <v>11</v>
@@ -7498,11 +11788,11 @@
         <v>5</v>
       </c>
       <c r="E10" s="12"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="50"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="61"/>
       <c r="K10" s="18"/>
     </row>
     <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7510,33 +11800,33 @@
         <v>36</v>
       </c>
       <c r="B11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="34">
-        <v>0</v>
-      </c>
-      <c r="F11" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="F11" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="51">
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="62">
         <f>SUM(B4:B10)</f>
         <v>15</v>
       </c>
-      <c r="J11" s="51"/>
+      <c r="J11" s="62"/>
     </row>
     <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="29"/>
       <c r="B12" s="20"/>
       <c r="C12" s="8"/>
       <c r="D12" s="28"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="62"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
@@ -7634,7 +11924,7 @@
       <c r="C17" s="8"/>
       <c r="D17" s="28"/>
       <c r="E17" s="35">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F17" s="20"/>
       <c r="G17" s="8"/>
@@ -7775,4 +12065,1353 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{605946EE-4E34-406E-884B-9A44CFA3FD9D}">
+  <dimension ref="A1:S23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.28515625" customWidth="1"/>
+    <col min="13" max="13" width="4.5703125" customWidth="1"/>
+    <col min="16" max="16" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="13"/>
+    </row>
+    <row r="2" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+    </row>
+    <row r="3" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+    </row>
+    <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="26"/>
+      <c r="D4" s="41">
+        <f>B4*C20</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="75" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="76"/>
+      <c r="H4" s="81" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="82"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+    </row>
+    <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="46">
+        <v>6</v>
+      </c>
+      <c r="C5" s="40"/>
+      <c r="D5" s="41">
+        <f>B5*10</f>
+        <v>60</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="86"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+    </row>
+    <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="38">
+        <v>5</v>
+      </c>
+      <c r="C6" s="38"/>
+      <c r="D6" s="41">
+        <f>B6*5</f>
+        <v>25</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="89"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="52"/>
+    </row>
+    <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="46">
+        <v>0</v>
+      </c>
+      <c r="C7" s="39"/>
+      <c r="D7" s="41">
+        <f>B7*5</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="54">
+        <f>SUMIF(A4:A11,"Medidas",B4:B11)</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="56">
+        <f>SUMIF(A4:A15,H4,B4:B15)</f>
+        <v>3</v>
+      </c>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+    </row>
+    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="38">
+        <v>3</v>
+      </c>
+      <c r="C8" s="38"/>
+      <c r="D8" s="41">
+        <f>B8*5</f>
+        <v>15</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54">
+        <f>SUMIF(A4:A11,"Taça",B4:B11)</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="52"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="46">
+        <v>5</v>
+      </c>
+      <c r="C9" s="39"/>
+      <c r="D9" s="41">
+        <f>B9*5</f>
+        <v>25</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="P9" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="38">
+        <v>9</v>
+      </c>
+      <c r="C10" s="38"/>
+      <c r="D10" s="41">
+        <f>B10*5</f>
+        <v>45</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="69" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="70">
+        <f>SUM(D4:D15)</f>
+        <v>390</v>
+      </c>
+      <c r="J10" s="71"/>
+      <c r="K10" s="18"/>
+      <c r="P10" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="46">
+        <v>0</v>
+      </c>
+      <c r="C11" s="39"/>
+      <c r="D11" s="42">
+        <f>B11*C22</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="72"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="18"/>
+    </row>
+    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="38">
+        <v>1</v>
+      </c>
+      <c r="C12" s="38"/>
+      <c r="D12" s="42">
+        <v>150</v>
+      </c>
+      <c r="F12" s="74" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="62">
+        <f>SUM(B4:B15)</f>
+        <v>35</v>
+      </c>
+      <c r="J12" s="62"/>
+    </row>
+    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="46">
+        <v>1</v>
+      </c>
+      <c r="C13" s="39"/>
+      <c r="D13" s="42">
+        <v>20</v>
+      </c>
+      <c r="F13" s="74"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="62"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="38">
+        <v>0</v>
+      </c>
+      <c r="C14" s="38"/>
+      <c r="D14" s="42">
+        <v>0</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="46">
+        <v>5</v>
+      </c>
+      <c r="C15" s="46"/>
+      <c r="D15" s="37">
+        <f>B15*10</f>
+        <v>50</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="20"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="43">
+        <v>0</v>
+      </c>
+      <c r="F18" s="20"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="44"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B22" s="14"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B23" s="14"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="I23" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="F10:H11"/>
+    <mergeCell ref="I10:J11"/>
+    <mergeCell ref="F12:H13"/>
+    <mergeCell ref="I12:J13"/>
+    <mergeCell ref="F4:G6"/>
+    <mergeCell ref="H4:J6"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:J3"/>
+    <mergeCell ref="L3:M8"/>
+    <mergeCell ref="F7:G8"/>
+    <mergeCell ref="H7:J8"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:J6" xr:uid="{FF44085E-1C04-4ECF-B70C-29C4C7DECF28}">
+      <formula1>$A$4:$A$15</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A68652C-76EB-4B55-B870-038202B2ADEF}">
+  <dimension ref="A1:S23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10:J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="3.7109375" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" customWidth="1"/>
+    <col min="13" max="13" width="4.5703125" customWidth="1"/>
+    <col min="16" max="16" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="13"/>
+    </row>
+    <row r="2" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="66" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+    </row>
+    <row r="3" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+    </row>
+    <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="26"/>
+      <c r="D4" s="41">
+        <f>B4*C20</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="75" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="76"/>
+      <c r="H4" s="81" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="82"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+    </row>
+    <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="46">
+        <v>0</v>
+      </c>
+      <c r="C5" s="40"/>
+      <c r="D5" s="41">
+        <f>B5*10</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="86"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+    </row>
+    <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="38">
+        <v>0</v>
+      </c>
+      <c r="C6" s="38"/>
+      <c r="D6" s="41">
+        <f>B6*5</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="89"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+    </row>
+    <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="46">
+        <v>3</v>
+      </c>
+      <c r="C7" s="39"/>
+      <c r="D7" s="41">
+        <f>B7*10</f>
+        <v>30</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="54">
+        <f>SUMIF(A4:A11,"Medidas",B4:B11)</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="56">
+        <f>SUMIF(A4:A15,H4,B4:B17)</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+    </row>
+    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="38">
+        <v>2</v>
+      </c>
+      <c r="C8" s="38"/>
+      <c r="D8" s="41">
+        <f>B8*5</f>
+        <v>10</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54">
+        <f>SUMIF(A4:A11,"Taça",B4:B11)</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="46">
+        <v>0</v>
+      </c>
+      <c r="C9" s="39"/>
+      <c r="D9" s="41">
+        <f>B9*10</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="P9" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="38">
+        <v>2</v>
+      </c>
+      <c r="C10" s="38"/>
+      <c r="D10" s="41">
+        <f>B10*5</f>
+        <v>10</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="69" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="70">
+        <f>SUM(D4:D17)</f>
+        <v>60</v>
+      </c>
+      <c r="J10" s="71"/>
+      <c r="K10" s="18"/>
+      <c r="P10" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="46">
+        <v>0</v>
+      </c>
+      <c r="C11" s="39"/>
+      <c r="D11" s="42">
+        <f>B11*C22</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="72"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="18"/>
+    </row>
+    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="38">
+        <v>0</v>
+      </c>
+      <c r="C12" s="38"/>
+      <c r="D12" s="42">
+        <f>B12*100</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="74" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="62">
+        <f>SUM(B4:B16)</f>
+        <v>9</v>
+      </c>
+      <c r="J12" s="62"/>
+    </row>
+    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="46">
+        <v>2</v>
+      </c>
+      <c r="C13" s="39"/>
+      <c r="D13" s="42">
+        <f>B13*5</f>
+        <v>10</v>
+      </c>
+      <c r="F13" s="74"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="62"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="38">
+        <v>0</v>
+      </c>
+      <c r="C14" s="38"/>
+      <c r="D14" s="42">
+        <v>0</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="46">
+        <v>0</v>
+      </c>
+      <c r="C15" s="46"/>
+      <c r="D15" s="37">
+        <f>B15*10</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="91" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="91"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="38">
+        <v>0</v>
+      </c>
+      <c r="C16" s="38"/>
+      <c r="D16" s="41">
+        <f>B16*5</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="90">
+        <v>60</v>
+      </c>
+      <c r="H16" s="90"/>
+      <c r="I16" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="45"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="18"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="28"/>
+      <c r="F18" s="92"/>
+      <c r="G18" s="92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" s="92"/>
+      <c r="I18" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="92">
+        <v>50</v>
+      </c>
+      <c r="H19" s="92"/>
+      <c r="I19" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="44"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B22" s="14"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B23" s="14"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="I23" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:B16">
+    <sortCondition ref="A4:A16"/>
+  </sortState>
+  <mergeCells count="13">
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="F10:H11"/>
+    <mergeCell ref="I10:J11"/>
+    <mergeCell ref="F12:H13"/>
+    <mergeCell ref="I12:J13"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="F7:G8"/>
+    <mergeCell ref="H7:J8"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:J3"/>
+    <mergeCell ref="F4:G6"/>
+    <mergeCell ref="H4:J6"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:J6" xr:uid="{8B3E2138-7F7E-4A6D-8305-90FC4044B8AA}">
+      <formula1>$A$4:$A$17</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B7B6F8F-80EF-45A4-8662-DC3F0B83DB0E}">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="101" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="101"/>
+      <c r="D1" s="98" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="98" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="95" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="96">
+        <f>Janeiro!H8</f>
+        <v>120</v>
+      </c>
+      <c r="D2" s="95" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="95">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="99">
+        <f>Fevereiro!I9</f>
+        <v>150</v>
+      </c>
+      <c r="C3" s="93"/>
+      <c r="D3" s="98" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="98">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="95" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="96">
+        <f>Março!I9</f>
+        <v>220</v>
+      </c>
+      <c r="D4" s="95" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="98" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="99">
+        <v>250</v>
+      </c>
+      <c r="D5" s="98" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="98">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="95" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="97">
+        <v>390</v>
+      </c>
+      <c r="D6" s="95" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="95">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="98" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="100">
+        <v>0</v>
+      </c>
+      <c r="D7" s="98" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="95" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="97">
+        <v>0</v>
+      </c>
+      <c r="D8" s="95" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="98" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="100">
+        <v>0</v>
+      </c>
+      <c r="D9" s="98" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="95" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="97">
+        <v>0</v>
+      </c>
+      <c r="D10" s="95" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="98" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="100">
+        <v>0</v>
+      </c>
+      <c r="D11" s="98" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="98">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="95" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="97">
+        <v>0</v>
+      </c>
+      <c r="D12" s="95" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="98" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="100">
+        <v>0</v>
+      </c>
+      <c r="D13" s="98" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="98">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="94">
+        <f>SUM(B2:B13)</f>
+        <v>1130</v>
+      </c>
+      <c r="D14" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="95">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D15" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="46">
+        <f>SUM(E2:E14)</f>
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D2:D14">
+    <sortCondition ref="D2:D14"/>
+  </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>